--- a/biology/Zoologie/Epibator_nigrofasciolatus/Epibator_nigrofasciolatus.xlsx
+++ b/biology/Zoologie/Epibator_nigrofasciolatus/Epibator_nigrofasciolatus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Epibator nigrofasciolatus est une espèce de sauriens de la famille des Scincidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Epibator nigrofasciolatus est une espèce de sauriens de la famille des Scincidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique de Nouvelle-Calédonie. Elle se rencontre aussi dans les îles de Grande Terre, de Lifou, de Maré, de Ouvéa et des Pins ainsi que dans les îles Belep[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique de Nouvelle-Calédonie. Elle se rencontre aussi dans les îles de Grande Terre, de Lifou, de Maré, de Ouvéa et des Pins ainsi que dans les îles Belep.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Peters, 1869 : Über neue Gattungen und neue oder weniger bekannte Arten von Amphibien (Eremias, Dicrodon, Euprepes, Lygosoma, Typhlops, Eryx, Rhynchonyx, Elapomorphus, Achalinus, Coronella, Dromicus, Xenopholis, Anoplodipsas, Spilotes, Tropidonotus). Monatsberichte der Königlich Preussischen Akademie der Wissenschaften zu Berlin, vol. 1869, p. 432-447 (texte intégral).</t>
         </is>
